--- a/docs/assets/Etiketten_qmBase_qr.xlsx
+++ b/docs/assets/Etiketten_qmBase_qr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8eeeac005b7e3cd/Desktop/_toDelete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{7BCB3066-39C3-4962-A3F1-3488609A84F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{893422B2-8C67-41BB-89A3-2D78F6B093A6}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{7BCB3066-39C3-4962-A3F1-3488609A84F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA2E9070-F9D3-40CE-AC0A-BB7015D65BD1}"/>
   <bookViews>
-    <workbookView xWindow="21190" yWindow="-6680" windowWidth="21600" windowHeight="11390" xr2:uid="{5B25A9CF-CACA-4B75-9E06-4BECF9794D3A}"/>
+    <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21220" xr2:uid="{5B25A9CF-CACA-4B75-9E06-4BECF9794D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>Url</t>
   </si>
   <si>
-    <t>InvId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>HostName</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Meine 2. ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Anzeigename</t>
   </si>
 </sst>
 </file>
@@ -417,23 +417,23 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>https://meineFirma.qmbase.com/MaintenanceManagement/InventoryItem/Edit/353</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>https://meineFirma.qmbase.com/MaintenanceManagement/InventoryItem/Edit/354</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -471,14 +471,14 @@
         <v>999</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE($K$2,$K$4,A4)</f>
         <v>https://meineFirma.qmbase.com/MaintenanceManagement/InventoryItem/Edit/999</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>777</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE($K$2,$K$4,A5)</f>
